--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H2">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N2">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O2">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P2">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q2">
-        <v>86199.70301377743</v>
+        <v>93030.22613387501</v>
       </c>
       <c r="R2">
-        <v>775797.3271239968</v>
+        <v>837272.0352048751</v>
       </c>
       <c r="S2">
-        <v>0.2117407229616796</v>
+        <v>0.22389419463473</v>
       </c>
       <c r="T2">
-        <v>0.2117407229616796</v>
+        <v>0.22389419463473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H3">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>53.218373</v>
       </c>
       <c r="O3">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P3">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q3">
-        <v>1834.748437831711</v>
+        <v>2093.871540195089</v>
       </c>
       <c r="R3">
-        <v>16512.7359404854</v>
+        <v>18844.84386175581</v>
       </c>
       <c r="S3">
-        <v>0.004506871219929907</v>
+        <v>0.005039283484981828</v>
       </c>
       <c r="T3">
-        <v>0.004506871219929906</v>
+        <v>0.005039283484981829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H4">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N4">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O4">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P4">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q4">
-        <v>13012.46651352605</v>
+        <v>15517.91544509827</v>
       </c>
       <c r="R4">
-        <v>117112.1986217345</v>
+        <v>139661.2390058844</v>
       </c>
       <c r="S4">
-        <v>0.0319637883978356</v>
+        <v>0.0373466917729548</v>
       </c>
       <c r="T4">
-        <v>0.03196378839783559</v>
+        <v>0.0373466917729548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H5">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N5">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O5">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P5">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q5">
-        <v>139.0841476979039</v>
+        <v>135.2663089107164</v>
       </c>
       <c r="R5">
-        <v>1251.757329281135</v>
+        <v>1217.396780196448</v>
       </c>
       <c r="S5">
-        <v>0.0003416459332969651</v>
+        <v>0.0003255430256742081</v>
       </c>
       <c r="T5">
-        <v>0.000341645933296965</v>
+        <v>0.0003255430256742081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J6">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N6">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O6">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P6">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q6">
-        <v>180129.8626480343</v>
+        <v>170345.4420160644</v>
       </c>
       <c r="R6">
-        <v>1621168.763832309</v>
+        <v>1533108.978144579</v>
       </c>
       <c r="S6">
-        <v>0.4424705191616117</v>
+        <v>0.4099673529224732</v>
       </c>
       <c r="T6">
-        <v>0.4424705191616116</v>
+        <v>0.4099673529224733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J7">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>53.218373</v>
       </c>
       <c r="O7">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P7">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q7">
         <v>3834.038547064349</v>
@@ -883,10 +883,10 @@
         <v>34506.34692357914</v>
       </c>
       <c r="S7">
-        <v>0.009417922167186565</v>
+        <v>0.009227312545260033</v>
       </c>
       <c r="T7">
-        <v>0.009417922167186564</v>
+        <v>0.009227312545260036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J8">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N8">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O8">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P8">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q8">
-        <v>27191.90117649198</v>
+        <v>28414.48715667085</v>
       </c>
       <c r="R8">
-        <v>244727.1105884278</v>
+        <v>255730.3844100376</v>
       </c>
       <c r="S8">
-        <v>0.06679411427778015</v>
+        <v>0.06838464209198743</v>
       </c>
       <c r="T8">
-        <v>0.06679411427778013</v>
+        <v>0.06838464209198744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J9">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N9">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O9">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P9">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q9">
-        <v>290.641470276737</v>
+        <v>247.682932084019</v>
       </c>
       <c r="R9">
-        <v>2615.773232490633</v>
+        <v>2229.146388756171</v>
       </c>
       <c r="S9">
-        <v>0.000713930940448898</v>
+        <v>0.0005960941180978949</v>
       </c>
       <c r="T9">
-        <v>0.0007139309404488977</v>
+        <v>0.000596094118097895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H10">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I10">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J10">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N10">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O10">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P10">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q10">
-        <v>20796.76546019813</v>
+        <v>36157.98364371247</v>
       </c>
       <c r="R10">
-        <v>187170.8891417831</v>
+        <v>325421.8527934122</v>
       </c>
       <c r="S10">
-        <v>0.05108511978403241</v>
+        <v>0.087020777697292</v>
       </c>
       <c r="T10">
-        <v>0.05108511978403241</v>
+        <v>0.08702077769729202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H11">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I11">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J11">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>53.218373</v>
       </c>
       <c r="O11">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P11">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q11">
-        <v>442.6561995689513</v>
+        <v>813.8233781508653</v>
       </c>
       <c r="R11">
-        <v>3983.905796120561</v>
+        <v>7324.410403357788</v>
       </c>
       <c r="S11">
-        <v>0.00108733952024427</v>
+        <v>0.001958614284821729</v>
       </c>
       <c r="T11">
-        <v>0.00108733952024427</v>
+        <v>0.001958614284821729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H12">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I12">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J12">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N12">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O12">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P12">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q12">
-        <v>3139.421653195605</v>
+        <v>6031.335794464598</v>
       </c>
       <c r="R12">
-        <v>28254.79487876045</v>
+        <v>54282.02215018137</v>
       </c>
       <c r="S12">
-        <v>0.007711667062506491</v>
+        <v>0.01451550884472759</v>
       </c>
       <c r="T12">
-        <v>0.007711667062506491</v>
+        <v>0.01451550884472759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H13">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I13">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J13">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N13">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O13">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P13">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q13">
-        <v>33.55580469276733</v>
+        <v>52.57384818242533</v>
       </c>
       <c r="R13">
-        <v>302.002242234906</v>
+        <v>473.164633641828</v>
       </c>
       <c r="S13">
-        <v>8.242639007783882E-05</v>
+        <v>0.0001265285476218629</v>
       </c>
       <c r="T13">
-        <v>8.24263900778388E-05</v>
+        <v>0.000126528547621863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H14">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N14">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O14">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P14">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q14">
-        <v>59679.75500603899</v>
+        <v>49409.45642237286</v>
       </c>
       <c r="R14">
-        <v>537117.7950543509</v>
+        <v>444685.1078013557</v>
       </c>
       <c r="S14">
-        <v>0.1465971926740268</v>
+        <v>0.1189128621176035</v>
       </c>
       <c r="T14">
-        <v>0.1465971926740268</v>
+        <v>0.1189128621176036</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H15">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>53.218373</v>
       </c>
       <c r="O15">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P15">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q15">
-        <v>1270.275110460742</v>
+        <v>1112.080007958234</v>
       </c>
       <c r="R15">
-        <v>11432.47599414667</v>
+        <v>10008.7200716241</v>
       </c>
       <c r="S15">
-        <v>0.003120300428485179</v>
+        <v>0.002676423223919575</v>
       </c>
       <c r="T15">
-        <v>0.003120300428485179</v>
+        <v>0.002676423223919576</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H16">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N16">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O16">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P16">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q16">
-        <v>9009.089201008024</v>
+        <v>8241.748932731662</v>
       </c>
       <c r="R16">
-        <v>81081.80280907222</v>
+        <v>74175.74039458495</v>
       </c>
       <c r="S16">
-        <v>0.02212990293415288</v>
+        <v>0.0198352709260338</v>
       </c>
       <c r="T16">
-        <v>0.02212990293415288</v>
+        <v>0.0198352709260338</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H17">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N17">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O17">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P17">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q17">
-        <v>96.29392642464167</v>
+        <v>71.84154089791721</v>
       </c>
       <c r="R17">
-        <v>866.645337821775</v>
+        <v>646.573868081255</v>
       </c>
       <c r="S17">
-        <v>0.0002365361467047463</v>
+        <v>0.0001728997618205317</v>
       </c>
       <c r="T17">
-        <v>0.0002365361467047462</v>
+        <v>0.0001728997618205317</v>
       </c>
     </row>
   </sheetData>
